--- a/Testdata/TC_Unit Manipulation_02.xlsx
+++ b/Testdata/TC_Unit Manipulation_02.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>djUAAB+LCAAAAAAAAAPtW1tvG8cV/isLPSVAqdklRUlUxhtQpGQT5UUQqdjKizHcHUlbLXfZvUjiW/pQBEgvQNEkQHpFHooGAZr6IS1cu2j/S2DJ6VP/Qs/M7GV2ubS4tIu2qAwD3jmXuZw5c853hmP87tXEVi6o51uuc29NW1fXFOoYrmk5p/fWwuCkom2uvavjvSuD2gfEIxMagLACWo6/c+Vb99bOgmC6g9Dl5eX6ZW3d9U5RVVU19KjXHRpndEIqluMHxDHoWqJl3q61puOWOenRgJgkIELz3lpn2FlvUctoA61HHHJKvfXd0Lcc6vt7TmAFFvWZpkdJQFvt3ntiYXp1fXNdw2iOnkruhpZtCrmMpKBHcjAsHVkTqlfVqlrRqhW1NtLUnWpjp7a5Xq9tvh8rJoK4S/xgSL0Ly+CEYUAmU66uVdWaplYbtU2MCoWgr9QAOh7Y5iG9sHxqtqht+6UsgqINbBoBrLqcMVWMJN2oo9WncN8j07ORFdi0rPq+61EDDLXS2H16OfAi+42mXeCOziwvmLXJrHRfRz71BlNmjXKqOm67TtC0qRccTWFTqQl7Dgw98EKK0QJmqtS2fAO+LSekpn5CbF9WyjDxQ9c796fEoH04sIj1cenYLjHBswLLDywjHXSOgQ88dwo9wuC7rm3uQ6+RcAEj6bnjgInZsLuue57OroiJuQ9wb4A9nZAgFp+j4+GZezlw7NkwHPuGZ42p2d6NpQt5mJ28SLsV+oE7gVmkJCxoEmUGf+Ck5cm4TQ1rQuwDG4zo6zXoJUPAzTBwT6yg5drhxPHjOeWo+CGsaESvkhUmbTyAzXWY0V2n48TywsyFrKzCoXuZjDnP4EaQyE3fiLd7npEXbgMt3r55Dt8Rtsp9y4ZEIO+FRM16xfCM0qDQJQQHs5i3z1KLvjtjY2KUUjB4Jng3UHWWICr870hVd/hfGDlh4z3HjOQ0HpxrslzMxP1wMhjDCb7ga9I14OVIGFZh79rEOQfqQys46zfj2RdwsFjzQvl5HoazOrXJjJMTu8g03HEMOzSpCAEd54Q7JZub2MaFbDxH6sKp1jFxZqPZFEKub+0E8HFvDZLwjh94kObXdMMNncCbsViBUSR6m44fjh0+ALGX1jnx6PdDQBez/dAxWq65/GimsM6RYwXLz9ANPREAl1fh1mOxMPTblEUVHuaX1jfKrMn3SolPHDpxHctY3tpgZDZ7c4WF+PGpWlqDivO1tLwNmVwkOnbWl1bzABpCais1TNP3XcPizhodD1PSRwuOTJuekNAGWBZAUj1Nom2ejJv+eV5GJuEjz45jns5Arw+o1zAn6wbABYbs1g13wggIwObDIUayPMM8Bt1zTrvEOQ0BVSRxJU9PIi7LiCOPOD5bTgIicsG3WAjHcUqAG10Er0HIHUEELxe4GOXk8IhOpq5H7B4YxtqP3C5CSAA+eiQ4i1qQzWxqxEZGqWqilZ1ZPPHbxHhaEstgBz4KkzkiF2JrEfg6lUlpmK2yB8fSbhHbGnsiqsbJu4gHG5bCwTj+ssWVhIbxHkCNBfn2u3TGgHfaiOjcZbWYIRyYBVJ9eLixXa2r9TpgGdbGfMX33YtAAdRLARUqFWVErpR3lI5jWheWGRIbPsH5YGXCPFEKKqUp6+D9OL7zKTRhnllKVgCQxakF6WNeMOGkCvoxJZ49kwTFEruuAXI3H//9+tmvbj7+8/UPf1d5+cVPrz/6/J9//cWLp1++ePZMUMUahTQekbFN+YxGu9vbam0DHCwhYWZVxFGwGRoBpx0fc/CbtHFUrPFGa6/Tut/d5YEkIcbqIpcgVgfO3DBtDsUq+EB8L1HsAkJEH8WBKWpnuFJu0llddkGz0jJ/kaKwxcvnv3/5/A8LtSODpSBLazS2eeF7OwbT5uQSDNbNBH8mvFFR65VqVRLOyeBDEfkTO3VMHernhqptqVoSxM3Ei4uE8qyopxE5RTk9QWoJXJS4gNyOmdzzR9QPErY4C1Ij8tE//ejbP36SkYqsG1GyvcDkOH5hg6G4wbvuH46U4eDosLWnjPaGzE9SniQnOn+FcDR6cqAyTuU4cMq/o0BWhyymrEHxs6a4Jwolxpkyg6MoHcSMsxVRxUArdpmf5X3PDadiRySFlFogmYSTQo2CYMN53J5zUSdlFYiLuV7/5esihWgh7RTJ6oe9XWXiJH7JaTjDESSJH53az/724umHLLg9+dn10x9keojGSW4AwM/hNMnNxO0h5EWJJkfBD4fcmOfqYymxRERWQR24lhP4urbBi6eohUFVY73xf3FnArmOd8ztBfQcBT8g/t5VEB1svY9RlgDznBJIs25aZiYEEcNTu/7j17+5+eXXN58++fbDL68/+uL6x5++fP7bb7/6XJy6m0+e3PzkqyjK5xMBnwsrXgX6U/hViKGw06iwpK1888HPFccNFMAaSsgj0jcffCZ1xibKUUnaM2C5ZCLZKcyJyspMT5Gmkswho5eoiMzfYimslkhEScydWkY6yPsV1hU7d5zxVmdUCX2quACj3oaVZIVT5WX1IhWRUg+21KpWjbhiNmwJY+JLpr9vu2OAETGD3zXkRDJar1ZIZfl497uD3WY3FRGTGHgm9Zgbig/c8WM0GbuXRAEuoDwjtNmV0JzYPAvHX1LoQtHdyknTZCFPV4vuLzISuBV6nkBBTnQnPwyngHzjG7jFfH4rKYHdvgCmMvxN2512lg9tiQvJL8tmBM7n4ShiidDU8dk1jsCufWaatAm8zE0mmCO6dhfoCpAk9RCLNXue53qFASflxGI9gM0QRVBq8UQGsSEFxDbTvYoJcZC7g9p3UPsOat9B7Tuo/f8Gtc/MRVCbcRZA7QLF8ghbW4ywtcfb9QYhtDGubGkbJ5WNjVq1MlbrZmWzuqEZ9bE63hzX/gPgO96sgh8ZFs5h+ay0yr6/yhULqqY3HUlfO2e/OpjeEuRur9nQK3bsrpK6q6TedCWlJZVUjMR9cdef+wUAgpGpH/U7o8e9Zr9zcNRtjjoDViswBCElNCFy1B11DrqdvcO3HoSO6VHzHUUUO4FCbFuZsJ8YprYFhcTb7McYKR+mr5PENJJ2hNvhvJ/SoJd0EMP394gdUv1BGyPxxVGp3hr0h6NmH9J49DNRrsuiEch0avMMsWiQ0eHRXrlhkLwqAV/zRYhETXYijYxNzwrOoAPLGEyp+M3ChxA6J5eosmIvVVKKtHg9mC+no3DkCgW6anmFRLGBMvEW5VJLvh1HPpmOpKoFSYUIKio7UKbOQK9dU6CFtcBiTjzTNDEVXhgU5K1CuUUVQKHw7RVAHrZzyvKgHmUSHJoH7SkJLcTjaA50o2IYvIA8p5K4fyGxyKsScFJIjAeQwCIS2ATNQ0v0Zi5pkYzH1NeChMujBCQR0HzWzpJQJs2ifEqVCUjKf6gg2+VoKJuuUBSV0P/a5V409n/z7R5a5T4PvblrOymxtK2Tk2OAkI/St1MxQcw47YU1RE6dAyVIQi2Sb0QPrN6ss6yCbYq6ubtPLnufvHx5/W+5akbpe5AUIbWpDYCu7KvjWLvnXqysC25RVrXjD2wzsnO5Jy2JWdIO5DfgzIfKTqbpeYAw2KPR0o+2u5Zz3im3er1aJ+pWTdusGxtUU6ukYdD61njLIGqtvkG3ADbxTlkxwLqYAA5k74PKDaKx+CSrp2+5DolzWrI3YWCuyN47gaX4WY0q36SN9y3PDx4xEBB9CcpxQjkWwPGRXhXo8JFoH+u1uiCAAJIHQ5lZx6EnEP9dwLW71sQq+SZKjeNTthNwg+lU4MCyG9pq9/r0KsBI6gEww/h7AE/EI8IyvYlTBQVQoh/3NQzHpbtDsfIB8Jljraa9ZwK8XF2bP7637NeYAAeVq3bRcXzr9Cwou6/jqjpu1LeNSsMkamWjftKoNLa365XG1uYWIWPDoFsN9mo66hwSh0UvSw7C0o3lh8Qur4dy/3tK/xf3tyjgdjUAAA==</t>
+          <t>lTUAAB+LCAAAAAAAAAPtW1tvG8cV/iuEnpIHanZJSqTU8Qa8SDJbXgSRiu2+GMvdoTjVcpfZiyU+Fm6BFEiAoE3zkAYIWvSSPrQw0iJADRf9M5HsN/+FnpnZy+xyaXFlB32oDAHmnMtczpw55zvDIf7gcm6VnhDXo459b0vdVrZKxDYck9pn97YCf1pWd7c+0PDBpUGsY93V58QH4RJo2d7+pUfvbc18f7GP0MXFxfZFddtxz1BFUVT0sN8bGTMy18vU9nzdNshWrGXerLWl4bY57xNfN3VfF5r3trqj7nabUKMDtL5u62fE3W4FHrWJ5x3YPvUp8ZimS3SftDv9D8XCtMr27raK0Qo9kWwF1DKFXEpS0EM5GJaM6ZxoFaWilJV6WVXGamVf3duvVLbrtZ2fRoqxIO7pnj8i7hNqcMLI1+cLrq7UVUWtqHuVCka5QtBXYgANDy3zhDyhHjHbxLK8QhZB4QY2DR9WXcyYCkaSbtjR7adw5OqL2Zj6Fimqfui4xABD3WrsAbkYuqH9xosecMcz6vrLjr4s3NepR9zhglmjmKqGO47tNy3i+qcL2FRiwp4DQ/PdgGC0hpkodahnwGdqB8TUprrlyUopJn7guOfeQjfIAA4sYn1c2Jajm+BZPvV8aiSDrjDwsessoEcYvOVY5iH0GgrnMOKeuzaYmA3bcpzzZHZ5TMx9gHsD7Olc9yPxFToezZyLoW0tR8HEM1w6IWanFUnn8jA7eaF2O/B8Zw6zSEhY0CRKv4+W8A8OW5aDO8Sgc906tsCOnlaFjlIE3Ax8Z0r9tmMFc9uLppWh4gewqDG5jBcZt/EQ9tdmdnfsrh3JC0vnstIKJ85FPOYqg9tBIjc9I9rxVUZWuAO0aAdXOXxT2CoPqQW5QN4OiZp2jNGMED/XKwQHs7B3yLKL1lqyMTFKKBicExwcqBrLEWX+N1aUff4HI8dsfGCboZyqlNVKuSrLRUw8CObDCRziJ3xNmgq8DAnDKqyWpdvnQH1A/dmgGc0+h4PFmtfKr/IwHNeFpS85ObaLTMNd27ACk4go0LWn3CnZ3MQ2rmXjFVIPDraGdXs5Xi4g6np034cP97YgD+97vguZfksznMD23SULFxiFojfpeMHE5gPo1sY6U5d8FADAWB4GttF2zM1HM4V1Tm3qbz5DJ3BFDNxchVuPhcPA6xAWWHik31jfKLImzy0kPrfJ3LGpsbm1wchs9uYtFuJFp2pjDSLO18byFiRzkevYWd9YzQV0CNmt0DBNz3MMyp01PB6mpI/WHJkOmeqBBcjMh7x6FkfbLBk3vfOsjEzCp64VxTyN4V4PgK9hzrcNQAwM3G0bzpwREODNByOMZHkGewxyYJ/1dPssAGARx5UsPY64LCmOXd322HJiHJEJvvlCOIpTAt9oIngNA+4IIng5wMUoI4fHZL5wXN3qg2HoYeh2IUgC/NHX/VnYgmxmESMyMkpUY630zKKJ3yTG05JYBjvwYZjMELkQW4uA2IlMQsNslX04llZbt+jEFVE1St55PNiwBBFG8ZctriA6jPYAyizItz8hS4a9k0ZI5y6rRgzhwCyQaqOTxu5uvVYDKMOamC/4vU77fYBtZsBttl/qUQi/U0rM0gAiHJizdKTDdgrjhAmoiKKsgg+j4M4n0AcfTRHSfEAVZxRSx4pczEjktT5gzZm1lCTF+nqOAYKvX3x89fOvrv/2h+vf/fP6i2evX/zq5edff//8L69ffHn93bdXn3xx9ce/vvzFd9fPPhcrFVp4rE8swmc2blXrVajDEgpmhkUcCzMTcFq3wyFw3MZhycYb7YNu+6jX4rEkJkbqIp0gVg0unSBpjsRi+EB8O1HkBUJEa0exKWynuFJ60mT4n9aRpdapC4MIG67VDq2WoC11r1EtK7VNwFiFgTElF4z1UlkgrKwB4e1JwhkZfCJSQGytrqmp1Z2KCiPFwdyM/TlHJssJ+xnrZ1qnddCKOmHtdC+JxAoZTiHHULGvyO2IyQ9K1zYdOPtUj2XE+ZEa4Y58+uzq+Z+vnr149af/fP/8y5R4uB0hJadPWBSHP2x8FDX4QB0KlbQPwdQnpSNiE3aanWlpSK2SbpviYEvikqoYlOmfc/3SjyHpc/0+tZf6ecnUbaZfagVzKncSzjY+vrJXrh7ulM/mUUV3b1TMjnjkOsFiJTAl1BzJ3BC1ys1ocputTi3h5ciLyV5/9XGeQriSTgKAtf6g1BqflvxZ7IecjLNMQZVEIr96mlIMR4hvDeBEwKmTm/EBgQAZZqYMBT8YcTueK4+TTBTSWMV17FDbhzJ6p86rrbCJQVVlvfH/cXcOyZF3zC0F9AwF39e9g0s/DADaAKM0Aea50MExnaQujQki4CcWffX7b0rdzvZJS1GrkCpefv2P62//dfXrT+JsIbJImBayiYNPh3+KO9mXj1ApyZ5SD2yCnLb2kMNMXj399/Xzz9jUM6KycnLi90sHcIbPlqURP9UpvVhFQIS22lDrSjUWCXOds6DGG6JOhp/Iy1EnIQq+SKzHqloLeWIshoEmuieZ8+qX37z87On1b59df/r3q+e/4XcOGZGUlnZkOROIOBEtrZDI8vGOesNWs5eIiEkMXQhazLvEB9z1IlQZeY1EAS6gPSOw2NXQitgqC0efpGCEwjuWadNkN+uaknePkZLA7cB1BSSyw+v5UbAABBxfo6wX4DeUEuodCIQq4+Ck3e2k+dCWuCyxpdg807EmDy0hS4SZrsfucwSIHTDbJE3gpW41wR7hFbzAWE8o7ANiMeTAdR03L5AkjEiqD/AZggNKLB7LIDaigNpmslcRIYpdd5D7DnLfQe47yH0Hue8g942Qm0HqmZmHtyPODwa21fVgW31s7NYMvWFOypNag5Rr1Z1GWVd3SFk3zEbVmOzs7lX0/wUQj/Yq5xuK9ZPYOJ3datvf5Ir5ldO7jrxvm+7fGHs3iXc3l3HoDRt3V1zdFVcbFldqXFxF4NwTXwNkvhyAUGNqp4Pu+HG/Oegen/aa4+6QVQ8MTEg5SYic9sbd41734OS9+4FtusT8UUmUP35Jt6zSnH37sLAolBbvs+9ppJSWvF0S04jbIZSHk3xG/H7cQQTpP9StgGj3AVuITxylau3hYDRuDsZgffENUqbLvBH0xcLiCWDdIOOT04NiwyB5VQLOZuoSiRhvRBL1mi71Z6BPjeGCiG8zIOKsysWqDHQlSqU8LY7LsgV2GGQcoUBuW3AhUYKgVCBFmbSRbUfxTKYjqZZBUlmC8qoQlCo70FuXGGhtUbCeE800yTi5Vwg5CSlXbl0pkCt8cymAVoA/kvB9litIElRHqdyFVlF5QkJrITZaAc0oH8iuIa+oxO6fS8zzqhh45BKjASQoiATuQKuoEb2b21gkgy3lrfDe5rkfSQS0mpPTJJRKoiibL2UCkpIfykl2GRpKZysURiV0d933zq/70G0u+NC7u8iTEkuHTqePALI+TF5VRQQx46QX1hApdQWTIAm0SL4RPr16t85yG2iT183/l8u9kxvmzavnH+T2GSVPRRKI1CEWALqib5Ij7b7z5Na64BdFVbve0DJDOxd77RKbJelAfiHOfKjoZJquCxCDvSct/KS7R+3zbrHVa8SsG43qhFQnjYmpmJP6nqk0pvWavqPUlV2Gm3inrBhgXcwBCLKnQ8UGUVmAktWTZ14nun1WsDdhYK7InkKBpcTlJCixZ1BRGx9S1/MfMhQQfhKURzHlkUCOD7XwxwsPRfuRptZ2BAUkkDwaSk07Cj6++DWBY/XonBZ8L6VEASrdCfjBYiGQYNEdbXf6A3LpYyT1AKhh8jMAKOKBYZHexLGCEijWj/oaBZPC3aFI+Rj4zLNup31gAsC8vTZ/m0+tt5gAh5W37aJre/Rs5hfd173dRm0XDmV5t7anlGuT3VpZr1Ua5XpVrZApmTRq9V32ojrsHDIHJRcFB2H5hnqBbhXXQ5kfV2n/BZWcr/uVNQAA</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,34 +442,34 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -454,105 +478,109 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB hd</t>
+          <t>BTU hd</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>13521201 (DBEB)</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>13521201 (DBEB)</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR866744</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR866744</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -561,7 +589,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -574,300 +602,1510 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>30407</v>
+      </c>
+      <c r="C12" s="6">
+        <v>30407</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>100734.4062390833</v>
       </c>
       <c r="C17" s="2">
-        <v>12319270</v>
+        <v>1007344062390.833</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>131298126.4678902</v>
       </c>
       <c r="C18" s="2">
-        <v>19624271575666.67</v>
+        <v>1.312981264678902e+22</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>11458.53945613882</v>
       </c>
       <c r="C19" s="2">
-        <v>4429929.071177852</v>
+        <v>114585394561.3882</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.2667012737278504</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892376</v>
+        <v>0.2667012737278474</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.5720186950592745</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045296</v>
+        <v>-0.572018695059278</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.1137500074100113</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.1137500074100113</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>7276300</v>
+        <v>804654490100</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>135284.28729</v>
       </c>
       <c r="C24" s="2">
-        <v>20268300</v>
+        <v>1352842872900</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>99617.61227500001</v>
       </c>
       <c r="C25" s="2">
-        <v>11811450</v>
+        <v>996176122750</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="10">
+        <v>36892</v>
+      </c>
+      <c r="B27" s="11">
+        <v>135284.28729</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1352842872900</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10">
+        <v>36923</v>
+      </c>
+      <c r="B28" s="11">
+        <v>118205.29328</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1182052932800</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="10">
+        <v>36951</v>
+      </c>
+      <c r="B29" s="11">
+        <v>109814.29374</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1098142937400</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10">
+        <v>36982</v>
+      </c>
+      <c r="B30" s="11">
+        <v>96402.72714</v>
+      </c>
+      <c r="C30" s="11">
+        <v>964027271400</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10">
+        <v>37012</v>
+      </c>
+      <c r="B31" s="11">
+        <v>94398.86853000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>943988685300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="10">
+        <v>37043</v>
+      </c>
+      <c r="B32" s="11">
+        <v>90105.00971</v>
+      </c>
+      <c r="C32" s="11">
+        <v>901050097100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>37073</v>
+      </c>
+      <c r="B33" s="11">
+        <v>96890.6566</v>
+      </c>
+      <c r="C33" s="11">
+        <v>968906566000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>37104</v>
+      </c>
+      <c r="B34" s="11">
+        <v>100350.22953</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1003502295300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>37135</v>
+      </c>
+      <c r="B35" s="11">
+        <v>86493.05051</v>
+      </c>
+      <c r="C35" s="11">
+        <v>864930505100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>37165</v>
+      </c>
+      <c r="B36" s="11">
+        <v>103714.2635</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1037142635000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>37196</v>
+      </c>
+      <c r="B37" s="11">
+        <v>106549.4956</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1065494956000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>37226</v>
       </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>7910200</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7">
+      <c r="B38" s="11">
+        <v>119237.99421</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1192379942100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>37257</v>
+      </c>
+      <c r="B39" s="11">
+        <v>122198.50611</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1221985061100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>37288</v>
+      </c>
+      <c r="B40" s="11">
+        <v>108966.68443</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1089666844300</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>37316</v>
+      </c>
+      <c r="B41" s="11">
+        <v>121418.17187</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1214181718700</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>37347</v>
+      </c>
+      <c r="B42" s="11">
+        <v>101807.1607</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1018071607000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>37377</v>
+      </c>
+      <c r="B43" s="11">
+        <v>103857.4879</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1038574879000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>37408</v>
+      </c>
+      <c r="B44" s="11">
+        <v>98341.8643</v>
+      </c>
+      <c r="C44" s="11">
+        <v>983418643000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>37438</v>
+      </c>
+      <c r="B45" s="11">
+        <v>111639.42179</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1116394217900</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>37469</v>
+      </c>
+      <c r="B46" s="11">
+        <v>116130.63441</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1161306344100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>37500</v>
+      </c>
+      <c r="B47" s="11">
+        <v>120969.70767</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1209697076700</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>37530</v>
+      </c>
+      <c r="B48" s="11">
+        <v>108214.74979</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1082147497900</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>37561</v>
+      </c>
+      <c r="B49" s="11">
+        <v>118808.14475</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1188081447500</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>37591</v>
       </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>7677300</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7">
+      <c r="B50" s="11">
+        <v>120525.93459</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1205259345900</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>37622</v>
+      </c>
+      <c r="B51" s="11">
+        <v>114532.24564</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1145322456400</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>37653</v>
+      </c>
+      <c r="B52" s="11">
+        <v>112875.12373</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1128751237300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>37681</v>
+      </c>
+      <c r="B53" s="11">
+        <v>101332.20911</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1013322091100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>37712</v>
+      </c>
+      <c r="B54" s="11">
+        <v>114443.26143</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1144432614300</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>37742</v>
+      </c>
+      <c r="B55" s="11">
+        <v>114707.84875</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1147078487500</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>37773</v>
+      </c>
+      <c r="B56" s="11">
+        <v>105534.8806</v>
+      </c>
+      <c r="C56" s="11">
+        <v>1055348806000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>37803</v>
+      </c>
+      <c r="B57" s="11">
+        <v>114707.84875</v>
+      </c>
+      <c r="C57" s="11">
+        <v>1147078487500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>37834</v>
+      </c>
+      <c r="B58" s="11">
+        <v>113330.19592</v>
+      </c>
+      <c r="C58" s="11">
+        <v>1133301959200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>37865</v>
+      </c>
+      <c r="B59" s="11">
+        <v>117934.76226</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1179347622600</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>37895</v>
+      </c>
+      <c r="B60" s="11">
+        <v>113511.70234</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1135117023400</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>37926</v>
+      </c>
+      <c r="B61" s="11">
+        <v>111404.66038</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1114046603800</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>37956</v>
       </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>7276300</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7">
+      <c r="B62" s="11">
+        <v>110498.81766</v>
+      </c>
+      <c r="C62" s="11">
+        <v>1104988176600</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>37987</v>
+      </c>
+      <c r="B63" s="11">
+        <v>110344.51003</v>
+      </c>
+      <c r="C63" s="11">
+        <v>1103445100300</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>38018</v>
+      </c>
+      <c r="B64" s="11">
+        <v>107329.43632</v>
+      </c>
+      <c r="C64" s="11">
+        <v>1073294363200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>38047</v>
+      </c>
+      <c r="B65" s="11">
+        <v>117176.82265</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1171768226500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>38078</v>
+      </c>
+      <c r="B66" s="11">
+        <v>117912.23517</v>
+      </c>
+      <c r="C66" s="11">
+        <v>1179122351700</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>38108</v>
+      </c>
+      <c r="B67" s="11">
+        <v>91476.68664</v>
+      </c>
+      <c r="C67" s="11">
+        <v>914766866400</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>38139</v>
+      </c>
+      <c r="B68" s="11">
+        <v>104704.70249</v>
+      </c>
+      <c r="C68" s="11">
+        <v>1047047024900</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>38169</v>
+      </c>
+      <c r="B69" s="11">
+        <v>114780.70888</v>
+      </c>
+      <c r="C69" s="11">
+        <v>1147807088800</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>38200</v>
+      </c>
+      <c r="B70" s="11">
+        <v>114713.3204</v>
+      </c>
+      <c r="C70" s="11">
+        <v>1147133204000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>38231</v>
+      </c>
+      <c r="B71" s="11">
+        <v>104816.91064</v>
+      </c>
+      <c r="C71" s="11">
+        <v>1048169106400</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>38261</v>
+      </c>
+      <c r="B72" s="11">
+        <v>100696.94848</v>
+      </c>
+      <c r="C72" s="11">
+        <v>1006969484800</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>38292</v>
+      </c>
+      <c r="B73" s="11">
+        <v>104916.2006</v>
+      </c>
+      <c r="C73" s="11">
+        <v>1049162006000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>38322</v>
       </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>9229100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7">
+      <c r="B74" s="11">
+        <v>115048.72206</v>
+      </c>
+      <c r="C74" s="11">
+        <v>1150487220600</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>38353</v>
+      </c>
+      <c r="B75" s="11">
+        <v>112680.67959</v>
+      </c>
+      <c r="C75" s="11">
+        <v>1126806795900</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>38384</v>
+      </c>
+      <c r="B76" s="11">
+        <v>101812.53353</v>
+      </c>
+      <c r="C76" s="11">
+        <v>1018125335300</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>38412</v>
+      </c>
+      <c r="B77" s="11">
+        <v>106736.15124</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1067361512400</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>38443</v>
+      </c>
+      <c r="B78" s="11">
+        <v>96239.75436000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>962397543600</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>38473</v>
+      </c>
+      <c r="B79" s="11">
+        <v>97325.42521</v>
+      </c>
+      <c r="C79" s="11">
+        <v>973254252100</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>38504</v>
+      </c>
+      <c r="B80" s="11">
+        <v>95580.57651</v>
+      </c>
+      <c r="C80" s="11">
+        <v>955805765100</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>38534</v>
+      </c>
+      <c r="B81" s="11">
+        <v>107845.54405</v>
+      </c>
+      <c r="C81" s="11">
+        <v>1078455440500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>38565</v>
+      </c>
+      <c r="B82" s="11">
+        <v>105794.89011</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1057948901100</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>38596</v>
+      </c>
+      <c r="B83" s="11">
+        <v>100711.97732</v>
+      </c>
+      <c r="C83" s="11">
+        <v>1007119773200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>38626</v>
+      </c>
+      <c r="B84" s="11">
+        <v>101785.85411</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1017858541100</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>38657</v>
+      </c>
+      <c r="B85" s="11">
+        <v>100487.01933</v>
+      </c>
+      <c r="C85" s="11">
+        <v>1004870193300</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>38687</v>
       </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>11264900</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7">
+      <c r="B86" s="11">
+        <v>99594.55590000001</v>
+      </c>
+      <c r="C86" s="11">
+        <v>995945559000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B87" s="11">
+        <v>102584.64169</v>
+      </c>
+      <c r="C87" s="11">
+        <v>1025846416900</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B88" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C88" s="11">
+        <v>934675494400</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B89" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C89" s="11">
+        <v>986070121200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B90" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C90" s="11">
+        <v>973956436700</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B91" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C91" s="11">
+        <v>920751243700</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B92" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C92" s="11">
+        <v>952322381900</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B93" s="11">
+        <v>100047.70727</v>
+      </c>
+      <c r="C93" s="11">
+        <v>1000477072700</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B94" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C94" s="11">
+        <v>953072401100</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B95" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C95" s="11">
+        <v>899178379800</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B96" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C96" s="11">
+        <v>983958323200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B97" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C97" s="11">
+        <v>981701342800</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>12358000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B98" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C98" s="11">
+        <v>985689482600</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B99" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C99" s="11">
+        <v>955242498000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B100" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C100" s="11">
+        <v>836170226800</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B101" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C101" s="11">
+        <v>986070121200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B102" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C102" s="11">
+        <v>873135929200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B103" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C103" s="11">
+        <v>890921227800</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B104" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C104" s="11">
+        <v>835804962000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B105" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C105" s="11">
+        <v>890628271900</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B106" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C106" s="11">
+        <v>931599971000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B107" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C107" s="11">
+        <v>865890822400</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B108" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C108" s="11">
+        <v>930358705200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B109" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C109" s="11">
+        <v>913561508400</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>14827100</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B110" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C110" s="11">
+        <v>956887379700</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B111" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C111" s="11">
+        <v>963289469000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B112" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C112" s="11">
+        <v>989537530300</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B113" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C113" s="11">
+        <v>900977722200</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B114" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C114" s="11">
+        <v>821558079400</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B115" s="11">
+        <v>90612.21429</v>
+      </c>
+      <c r="C115" s="11">
+        <v>906122142900</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B116" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C116" s="11">
+        <v>834686995600</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B117" s="11">
+        <v>85880.46563000001</v>
+      </c>
+      <c r="C117" s="11">
+        <v>858804656300</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B118" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C118" s="11">
+        <v>880719520600</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B119" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C119" s="11">
+        <v>864116581000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B120" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C120" s="11">
+        <v>858634635700</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B121" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C121" s="11">
+        <v>879111560200</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>15986100</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B122" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C122" s="11">
+        <v>917899082200</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B123" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C123" s="11">
+        <v>920303717800</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B124" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C124" s="11">
+        <v>804654490100</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B125" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C125" s="11">
+        <v>815585178800</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B126" s="11">
+        <v>81657.46120000001</v>
+      </c>
+      <c r="C126" s="11">
+        <v>816574612000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B127" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C127" s="11">
+        <v>833087852900</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B128" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C128" s="11">
+        <v>848394901900</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B129" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C129" s="11">
+        <v>904136671200</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B130" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C130" s="11">
+        <v>859455674300</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B131" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C131" s="11">
+        <v>846724391300</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B132" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C132" s="11">
+        <v>853705440100</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B133" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C133" s="11">
+        <v>865784388000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>16395400</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B134" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C134" s="11">
+        <v>971566566700</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B135" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C135" s="11">
+        <v>972891083800</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B136" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C136" s="11">
+        <v>946714368000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B137" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C137" s="11">
+        <v>1104032431400</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B138" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C138" s="11">
+        <v>996406686500</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B139" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C139" s="11">
+        <v>1100558161000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B140" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C140" s="11">
+        <v>949300296800</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B141" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C141" s="11">
+        <v>1110791593300</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B142" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C142" s="11">
+        <v>1124824195100</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B143" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C143" s="11">
+        <v>1055031781100</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B144" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C144" s="11">
+        <v>1077650252900</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B145" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C145" s="11">
+        <v>1013640360700</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>20268300</v>
+      <c r="B146" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C146" s="11">
+        <v>1093540093800</v>
       </c>
     </row>
   </sheetData>
@@ -887,23 +2125,23 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>146</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas</DisplayName>
+          <SeriesId>13521201</SeriesId>
+          <Code>SR866744</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>146</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas</DisplayName>
+          <SeriesId>13521201</SeriesId>
+          <Code>SR866744</Code>
           <Order>1</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -913,7 +2151,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF815CEE-5006-44F8-ADEE-5B017B7EAF6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E76E45AC-0DF6-44A1-8DD7-FD0AF4C5A337}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
